--- a/04-ProjektCMS/Aufwandschätzung/Aufwandschätzung.xlsx
+++ b/04-ProjektCMS/Aufwandschätzung/Aufwandschätzung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt2\Aufwandschätzung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\AbgabenTP\04-ProjektCMS\Aufwandschätzung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,67 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Vorgang</t>
   </si>
   <si>
-    <t>geschätzte Dauer</t>
-  </si>
-  <si>
-    <t>Eigendliche Dauer</t>
-  </si>
-  <si>
     <t>Aufwandschätzung machen</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Pflichtenheft erstellen</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Kundengespräche führen</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Design der Seite programmieren</t>
   </si>
   <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>Texte hineinschreiben</t>
-  </si>
-  <si>
     <t>Feher finden und korrigieren</t>
   </si>
   <si>
-    <t>0,5h</t>
-  </si>
-  <si>
     <t>Feinheiten verbessern</t>
   </si>
   <si>
-    <t>2,5h</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>Inhalt einfügen</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>geschätzte Dauer [Stunden]</t>
+  </si>
+  <si>
+    <t>geschätzte Kosten [€]</t>
+  </si>
+  <si>
+    <t>Gesamtpreis</t>
+  </si>
+  <si>
+    <t>eingentliche Kosten [€]</t>
+  </si>
+  <si>
+    <t>eigentliche Dauer [Stunden]</t>
+  </si>
+  <si>
+    <t>Stundenabweichung [Stunden]</t>
+  </si>
+  <si>
+    <t>Kostenabweichung [€]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stundensatz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +99,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +140,39 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -173,51 +232,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -295,29 +309,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="20 % - Akzent3" xfId="6" builtinId="38"/>
+    <cellStyle name="Akzent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Akzent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,109 +748,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>$C3*75</f>
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <f>$D3*75</f>
+        <v>187.5</v>
+      </c>
+      <c r="G3" s="13">
+        <f>ABS(D3-C3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>ABS(F3-E3)</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="0">$C4*75</f>
+        <v>225</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F10" si="1">$D4*75</f>
+        <v>375</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G10" si="2">ABS(D4-C4)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H10" si="3">ABS(F4-E4)</f>
+        <v>150</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>375</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>562.5</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <f>C3+C4+C5+C6+C7+C8+C9</f>
+        <v>14</v>
+      </c>
+      <c r="D10" s="24">
+        <f>D3+D4+D5+D6+D7+D8+D9</f>
+        <v>19.5</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="1"/>
+        <v>1462.5</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="3"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="15">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
+      <c r="C13" s="18">
+        <v>1462.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>